--- a/容器表.xlsx
+++ b/容器表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>姓名</t>
   </si>
@@ -49,7 +49,15 @@
     <t>初始密码同容器名</t>
   </si>
   <si>
-    <t>初始模板</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始模板</t>
+    </r>
   </si>
   <si>
     <t>founding-titan-anaconda</t>
@@ -58,7 +66,15 @@
     <t>-</t>
   </si>
   <si>
-    <t>杨高民</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨高民</t>
+    </r>
   </si>
   <si>
     <t>yanggaomin</t>
@@ -67,7 +83,15 @@
     <t>ssh yanggaomin@192.168.137.72 -p 10001</t>
   </si>
   <si>
-    <t>杨元元</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨元元</t>
+    </r>
   </si>
   <si>
     <t>yangyuanyuan</t>
@@ -76,7 +100,15 @@
     <t>ssh yangyuanyuan@192.168.137.72 -p 10002</t>
   </si>
   <si>
-    <t>马黎明</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马黎明</t>
+    </r>
   </si>
   <si>
     <t>maliming</t>
@@ -85,7 +117,15 @@
     <t>ssh maliming@192.168.137.72 -p 10003</t>
   </si>
   <si>
-    <t>胡传奇</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡传奇</t>
+    </r>
   </si>
   <si>
     <t>huchuanqi</t>
@@ -94,7 +134,15 @@
     <t>ssh huchuanqi@192.168.137.72 -p 10004</t>
   </si>
   <si>
-    <t>张正文</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张正文</t>
+    </r>
   </si>
   <si>
     <t>zhangzhengwen</t>
@@ -103,7 +151,15 @@
     <t>ssh zhangzhengwen@192.168.137.72 -p 10005</t>
   </si>
   <si>
-    <t>喻老师</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喻老师</t>
+    </r>
   </si>
   <si>
     <t>yulaoshi</t>
@@ -112,7 +168,15 @@
     <t>ssh yulaoshi@192.168.137.72 -p 10006</t>
   </si>
   <si>
-    <t>杨老师</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨老师</t>
+    </r>
   </si>
   <si>
     <t>yanglaoshi</t>
@@ -128,6 +192,12 @@
   </si>
   <si>
     <t>ssh lulaoshi@192.168.137.72 -p 10008</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
+  </si>
+  <si>
+    <t>ssh ubuntu@192.168.137.72</t>
   </si>
 </sst>
 </file>
@@ -140,9 +210,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -162,11 +239,11 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -658,162 +735,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1210,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -1144,45 +1227,45 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="35.75" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="18.75" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="18.25" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18.75" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6">
@@ -1193,11 +1276,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="18.25" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="18.75" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
@@ -1208,11 +1291,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="18.25" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="18.75" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="6">
@@ -1223,11 +1306,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="18.25" spans="1:6">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="18.75" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6">
@@ -1238,11 +1321,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="18.25" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="18.75" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6">
@@ -1253,11 +1336,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="18.25" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="18.75" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5">
@@ -1268,11 +1351,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="18.25" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="18.75" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5">
@@ -1283,11 +1366,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="17.5" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="18" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="8">
@@ -1297,6 +1380,31 @@
       <c r="E10" s="8" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="11" ht="18" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" ht="18" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/容器表.xlsx
+++ b/容器表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790"/>
+    <workbookView windowWidth="25596" windowHeight="12095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>姓名</t>
   </si>
@@ -66,6 +66,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>后续请修改自己密码</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -80,7 +83,16 @@
     <t>yanggaomin</t>
   </si>
   <si>
-    <t>ssh yanggaomin@192.168.137.72 -p 10001</t>
+    <t>ssh yanggaomin@172.16.192.54 -p 10001</t>
+  </si>
+  <si>
+    <t>【修改密码教程】
+先用初始密码 SSH 登录你的账号。
+在命令行输入：passwd 并回车。
+Current password: 输入当前的初始密码（注意：输入时屏幕上什么都不会显示，连 * 号都没有，这是正常的，输完直接回车）。
+New password: 输入你想设置的新密码（回车）。
+Retype new password: 再次输入新密码（回车）。
+如果显示 passwd: password updated successfully，就说明修改成功了！</t>
   </si>
   <si>
     <r>
@@ -97,7 +109,7 @@
     <t>yangyuanyuan</t>
   </si>
   <si>
-    <t>ssh yangyuanyuan@192.168.137.72 -p 10002</t>
+    <t>ssh yangyuanyuan@172.16.192.54 -p 10002</t>
   </si>
   <si>
     <r>
@@ -114,7 +126,7 @@
     <t>maliming</t>
   </si>
   <si>
-    <t>ssh maliming@192.168.137.72 -p 10003</t>
+    <t>ssh maliming@172.16.192.54 -p 10003</t>
   </si>
   <si>
     <r>
@@ -131,7 +143,7 @@
     <t>huchuanqi</t>
   </si>
   <si>
-    <t>ssh huchuanqi@192.168.137.72 -p 10004</t>
+    <t>ssh huchuanqi@172.16.192.54 -p 10004</t>
   </si>
   <si>
     <r>
@@ -148,7 +160,7 @@
     <t>zhangzhengwen</t>
   </si>
   <si>
-    <t>ssh zhangzhengwen@192.168.137.72 -p 10005</t>
+    <t>ssh zhangzhengwen@172.16.192.54 -p 10005</t>
   </si>
   <si>
     <r>
@@ -165,7 +177,7 @@
     <t>yulaoshi</t>
   </si>
   <si>
-    <t>ssh yulaoshi@192.168.137.72 -p 10006</t>
+    <t>ssh yulaoshi@172.16.192.54 -p 10006</t>
   </si>
   <si>
     <r>
@@ -182,7 +194,7 @@
     <t>yanglaoshi</t>
   </si>
   <si>
-    <t>ssh yanglaoshi@192.168.137.72 -p 10007</t>
+    <t>ssh yanglaoshi@172.16.192.54 -p 10007</t>
   </si>
   <si>
     <t>卢老师</t>
@@ -191,13 +203,16 @@
     <t>lulaoshi</t>
   </si>
   <si>
-    <t>ssh lulaoshi@192.168.137.72 -p 10008</t>
+    <t>ssh lulaoshi@172.16.192.54 -p 10008</t>
   </si>
   <si>
     <t>ubuntu</t>
   </si>
   <si>
-    <t>ssh ubuntu@192.168.137.72</t>
+    <t>ssh ubuntu@172.16.192.54</t>
+  </si>
+  <si>
+    <t>上述账号，通过校园网可以直接连接</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +259,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -735,137 +758,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -887,17 +910,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1210,23 +1242,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="F26 E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="28.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="12.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="59.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="29.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="18.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="28.2685185185185" customWidth="1"/>
+    <col min="3" max="3" width="16.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="12.5462962962963" customWidth="1"/>
+    <col min="5" max="5" width="59.5462962962963" customWidth="1"/>
+    <col min="6" max="6" width="60.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.25" spans="1:6">
+    <row r="1" ht="18.15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1260,153 +1292,179 @@
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>10001</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6">
         <v>10002</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>10003</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>10004</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6">
         <v>10005</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>10006</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
         <v>10007</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="8">
+    <row r="10" s="1" customFormat="1" ht="20.4" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10">
         <v>10008</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="18" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="18" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
-        <v>34</v>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" ht="20.4" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F3:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1422,7 +1480,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1439,7 +1497,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
